--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/625d63d915524ff4/Eclipse/htdocs/!coding/Hogeschool Rotterdam HBO/2025-2026 Schooljaar 1/Basecamp/W4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/625d63d915524ff4/Eclipse/htdocs/!coding/Hogeschool Rotterdam HBO/2025-2026 Schooljaar 1/Basecamp/W4/py-boardgame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD2B788E-6FFA-4F26-852D-7742313F2AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="309" documentId="8_{FD2B788E-6FFA-4F26-852D-7742313F2AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14AB2685-9D44-45B5-8FF6-1308BD0B17DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40C596E0-6B8B-4B58-AEA6-41C63CA94AB7}"/>
   </bookViews>
@@ -36,16 +36,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="27">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Logboek</t>
+  </si>
+  <si>
+    <t>Maandag</t>
+  </si>
+  <si>
+    <t>Dinsdag</t>
+  </si>
+  <si>
+    <t>Woensdag</t>
+  </si>
+  <si>
+    <t>Donderdag</t>
+  </si>
+  <si>
+    <t>Vrijdag</t>
+  </si>
+  <si>
+    <t>Zaterdag</t>
+  </si>
+  <si>
+    <t>Zondag</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Talha</t>
+  </si>
+  <si>
+    <t>Shuya</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Nadenken over wat te doen</t>
+  </si>
+  <si>
+    <t>Starten met basis</t>
+  </si>
+  <si>
+    <t>Doorgaan met basis</t>
+  </si>
+  <si>
+    <t>Werken aan online connectivity en leren hoe ports/threads werken</t>
+  </si>
+  <si>
+    <t>Werken aan maps, kleuren, en tiles system</t>
+  </si>
+  <si>
+    <t>Importeren van games, omzetten naar socket compatible</t>
+  </si>
+  <si>
+    <t>Presentatie</t>
+  </si>
+  <si>
+    <t>Games designen</t>
+  </si>
+  <si>
+    <t>Games verbeteren</t>
+  </si>
+  <si>
+    <t>Dobbel- en puntsysteem klaarzetten</t>
+  </si>
+  <si>
+    <t>Online connectivity testen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +131,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +208,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,15 +554,916 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AF18A1-F136-42B3-B9CF-5EDF9E89BE4A}">
-  <dimension ref="B1"/>
+  <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2">
+        <v>0.52083333333333404</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="2">
+        <v>0.52083333333333404</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="2">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="2">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
